--- a/Star Regein/Star Regein/VenusCow.xlsx
+++ b/Star Regein/Star Regein/VenusCow.xlsx
@@ -72,113 +72,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1100,7 +994,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1262,46 +1156,46 @@
         <v>99</v>
       </c>
       <c r="B2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1325,40 +1219,40 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>99</v>
@@ -1414,28 +1308,28 @@
         <v>99</v>
       </c>
       <c r="B3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1477,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1489,28 +1383,28 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>99</v>
@@ -1566,10 +1460,10 @@
         <v>99</v>
       </c>
       <c r="B4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1653,16 +1547,16 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>99</v>
@@ -1718,7 +1612,7 @@
         <v>99</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1760,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1870,7 +1764,7 @@
         <v>99</v>
       </c>
       <c r="B6">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2022,7 +1916,7 @@
         <v>99</v>
       </c>
       <c r="B7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2174,7 +2068,7 @@
         <v>99</v>
       </c>
       <c r="B8">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2326,7 +2220,7 @@
         <v>99</v>
       </c>
       <c r="B9">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2478,7 +2372,7 @@
         <v>99</v>
       </c>
       <c r="B10">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2490,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2711,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -2845,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -3477,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -3608,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -4007,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -4150,7 +4044,7 @@
         <v>99</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4302,7 +4196,7 @@
         <v>99</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4454,7 +4348,7 @@
         <v>99</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4606,7 +4500,7 @@
         <v>99</v>
       </c>
       <c r="B24">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4702,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI24">
         <v>99</v>
@@ -4758,7 +4652,7 @@
         <v>99</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4839,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -4854,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI25">
         <v>99</v>
@@ -4910,7 +4804,7 @@
         <v>99</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -5006,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI26">
         <v>99</v>
@@ -5062,10 +4956,10 @@
         <v>99</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5158,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI27">
         <v>99</v>
@@ -5214,10 +5108,10 @@
         <v>99</v>
       </c>
       <c r="B28">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5310,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI28">
         <v>99</v>
@@ -5366,13 +5260,13 @@
         <v>99</v>
       </c>
       <c r="B29">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5384,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5411,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -5462,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI29">
         <v>99</v>
@@ -5518,22 +5412,22 @@
         <v>99</v>
       </c>
       <c r="B30">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -5614,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI30">
         <v>99</v>
@@ -5670,31 +5564,31 @@
         <v>99</v>
       </c>
       <c r="B31">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -5763,10 +5657,10 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI31">
         <v>99</v>
@@ -5822,40 +5716,40 @@
         <v>99</v>
       </c>
       <c r="B32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -5915,10 +5809,10 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AH32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI32">
         <v>99</v>
@@ -5974,49 +5868,49 @@
         <v>99</v>
       </c>
       <c r="B33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -6061,16 +5955,16 @@
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AH33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI33">
         <v>99</v>
@@ -6126,58 +6020,58 @@
         <v>99</v>
       </c>
       <c r="B34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -6204,25 +6098,25 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AE34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI34">
         <v>99</v>
@@ -8707,50 +8601,50 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 A4:AE34 AB34:AH34 AF33:AH33 AH30:AO34 AF7:AG34 AH7:AH30 A35:AO40">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 AB34:AH34 AH30:AO34 A35:AO40 AF7:AH34 B31:AG34 A4:AE34 B2:B10 C2:AH4">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 A4:AE34 AB34:AH34 AF33:AH33 AH30:AO34 AF7:AG34 AH7:AH30 A35:AO40">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 AB34:AH34 AH30:AO34 A35:AO40 AF7:AH34 B31:AG34 A4:AE34 B2:B10 C2:AH4">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 A4:AE34 AB34:AH34 AF33:AH33 AH30:AO34 AF7:AG34 AH7:AH30 A35:AO40">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 AB34:AH34 AH30:AO34 A35:AO40 AF7:AH34 B31:AG34 A4:AE34 B2:B10 C2:AH4">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 A4:AE34 AB34:AH34 AF33:AH33 AH30:AO34 AF7:AG34 AH7:AH30 A35:AO40">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 AB34:AH34 AH30:AO34 A35:AO40 AF7:AH34 B31:AG34 A4:AE34 B2:B10 C2:AH4">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 A4:AE34 AB34:AH34 AF33:AH33 AH30:AO34 AF7:AG34 AH7:AH30 A35:AO40">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 AB34:AH34 AH30:AO34 A35:AO40 AF7:AH34 B31:AG34 A4:AE34 B2:B10 C2:AH4">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 A4:AE34 AB34:AH34 AF33:AH33 AH30:AO34 AF7:AG34 AH7:AH30 A35:AO40">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 AB34:AH34 AH30:AO34 A35:AO40 AF7:AH34 B31:AG34 A4:AE34 B2:B10 C2:AH4">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/VenusCow.xlsx
+++ b/Star Regein/Star Regein/VenusCow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,12 +42,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,15 +70,1738 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="231">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -176,16 +1905,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53192</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>17319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>122464</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -194,8 +1923,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="693965" y="966107"/>
-          <a:ext cx="5143499" cy="4259036"/>
+          <a:off x="815192" y="901783"/>
+          <a:ext cx="7826581" cy="7196942"/>
           <a:chOff x="1143001" y="1319893"/>
           <a:chExt cx="5510892" cy="4259036"/>
         </a:xfrm>
@@ -993,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AU37" sqref="AU37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1106,49 +2835,49 @@
         <v>99</v>
       </c>
       <c r="AJ1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AL1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AN1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AP1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AQ1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AR1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AS1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AT1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AU1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AV1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AW1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AX1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.15">
@@ -1255,52 +2984,52 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.15">
@@ -1323,12 +3052,12 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3">
@@ -1371,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1407,52 +3136,52 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.15">
@@ -1474,13 +3203,13 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4">
@@ -1559,52 +3288,52 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.15">
@@ -1626,13 +3355,13 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5">
@@ -1654,50 +3383,50 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
         <v>1</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
       <c r="AE5">
         <v>0</v>
       </c>
@@ -1711,52 +3440,52 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="AR5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
@@ -1773,31 +3502,31 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1863,52 +3592,52 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.15">
@@ -1924,13 +3653,13 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7">
@@ -1939,13 +3668,13 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
         <v>0</v>
       </c>
       <c r="M7">
@@ -1970,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1982,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -2015,52 +3744,52 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX7">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.15">
@@ -2076,13 +3805,13 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8">
@@ -2091,13 +3820,13 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
         <v>0</v>
       </c>
       <c r="M8">
@@ -2149,12 +3878,12 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
         <v>0</v>
       </c>
       <c r="AF8">
@@ -2167,52 +3896,52 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="AL8">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ8">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU8">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV8">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW8">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX8">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.15">
@@ -2232,25 +3961,25 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2262,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2277,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2300,13 +4029,13 @@
       <c r="AB9">
         <v>0</v>
       </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
         <v>0</v>
       </c>
       <c r="AF9">
@@ -2319,52 +4048,52 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX9">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.15">
@@ -2383,22 +4112,22 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>0</v>
       </c>
       <c r="L10">
@@ -2417,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2452,13 +4181,13 @@
       <c r="AB10">
         <v>0</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
         <v>0</v>
       </c>
       <c r="AF10">
@@ -2471,52 +4200,52 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX10">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.15">
@@ -2535,22 +4264,22 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <v>0</v>
       </c>
       <c r="L11">
@@ -2566,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -2587,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -2605,13 +4334,13 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2623,52 +4352,52 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX11">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.15">
@@ -2709,13 +4438,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2739,88 +4468,88 @@
         <v>0</v>
       </c>
       <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
         <v>1</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>99</v>
-      </c>
-      <c r="AJ12">
-        <v>98</v>
-      </c>
-      <c r="AK12">
-        <v>98</v>
-      </c>
-      <c r="AL12">
-        <v>98</v>
-      </c>
-      <c r="AM12">
-        <v>98</v>
-      </c>
-      <c r="AN12">
-        <v>98</v>
-      </c>
-      <c r="AO12">
-        <v>98</v>
-      </c>
-      <c r="AP12">
-        <v>98</v>
-      </c>
-      <c r="AQ12">
-        <v>98</v>
-      </c>
-      <c r="AR12">
-        <v>98</v>
-      </c>
-      <c r="AS12">
-        <v>98</v>
-      </c>
-      <c r="AT12">
-        <v>98</v>
-      </c>
-      <c r="AU12">
-        <v>98</v>
-      </c>
       <c r="AV12">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW12">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX12">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.15">
@@ -2834,10 +4563,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2876,103 +4605,103 @@
         <v>0</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
         <v>5</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
       <c r="AI13">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX13">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.15">
@@ -3007,17 +4736,17 @@
         <v>0</v>
       </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
         <v>0</v>
       </c>
@@ -3025,12 +4754,12 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
         <v>0</v>
       </c>
       <c r="T14">
@@ -3048,13 +4777,13 @@
       <c r="X14">
         <v>0</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
         <v>0</v>
       </c>
       <c r="AB14">
@@ -3079,52 +4808,52 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK14">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL14">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN14">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU14">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV14">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW14">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX14">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.15">
@@ -3174,15 +4903,15 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>2</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
         <v>0</v>
       </c>
       <c r="T15">
@@ -3228,55 +4957,55 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>99</v>
-      </c>
-      <c r="AJ15">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR15">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU15">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV15">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW15">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX15">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.15">
@@ -3317,32 +5046,32 @@
         <v>0</v>
       </c>
       <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>2</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
       <c r="V16">
         <v>0</v>
       </c>
@@ -3371,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -3379,56 +5108,56 @@
       <c r="AG16">
         <v>0</v>
       </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>99</v>
-      </c>
-      <c r="AJ16">
-        <v>98</v>
+      <c r="AH16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL16">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>98</v>
-      </c>
-      <c r="AP16">
-        <v>98</v>
-      </c>
-      <c r="AQ16">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>0</v>
       </c>
       <c r="AR16">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU16">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV16">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW16">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX16">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.15">
@@ -3457,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3481,13 +5210,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -3502,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -3531,56 +5260,56 @@
       <c r="AG17">
         <v>0</v>
       </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>99</v>
-      </c>
-      <c r="AJ17">
-        <v>98</v>
+      <c r="AH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL17">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN17">
-        <v>98</v>
-      </c>
-      <c r="AO17">
-        <v>98</v>
-      </c>
-      <c r="AP17">
-        <v>98</v>
-      </c>
-      <c r="AQ17">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>0</v>
       </c>
       <c r="AR17">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU17">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV17">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW17">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX17">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.15">
@@ -3597,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3621,65 +5350,65 @@
         <v>0</v>
       </c>
       <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
         <v>5</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>2</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
       <c r="AG18">
         <v>0</v>
       </c>
@@ -3687,52 +5416,52 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK18">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>98</v>
-      </c>
-      <c r="AO18">
-        <v>98</v>
-      </c>
-      <c r="AP18">
-        <v>98</v>
-      </c>
-      <c r="AQ18">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>0</v>
       </c>
       <c r="AR18">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU18">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV18">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW18">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX18">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.15">
@@ -3776,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -3839,52 +5568,52 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK19">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL19">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM19">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN19">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR19">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU19">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV19">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW19">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX19">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.15">
@@ -3901,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3952,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -3991,52 +5720,52 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK20">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL20">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM20">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN20">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO20">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ20">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR20">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS20">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT20">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU20">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV20">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW20">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX20">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.15">
@@ -4059,56 +5788,56 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
         <v>2</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
       <c r="X21">
         <v>0</v>
       </c>
@@ -4125,12 +5854,12 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
+        <v>6</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
         <v>0</v>
       </c>
       <c r="AF21">
@@ -4143,52 +5872,52 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK21">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL21">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM21">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN21">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ21">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR21">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS21">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT21">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU21">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV21">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW21">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX21">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.15">
@@ -4210,13 +5939,13 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="J22">
@@ -4276,14 +6005,14 @@
       <c r="AB22">
         <v>0</v>
       </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>2</v>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -4295,52 +6024,52 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>99</v>
-      </c>
-      <c r="AJ22">
-        <v>98</v>
-      </c>
-      <c r="AK22">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0</v>
       </c>
       <c r="AL22">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM22">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN22">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO22">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ22">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR22">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS22">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT22">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="AU22">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV22">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW22">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX22">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.15">
@@ -4362,13 +6091,13 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
         <v>0</v>
       </c>
       <c r="J23">
@@ -4396,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -4428,13 +6157,13 @@
       <c r="AB23">
         <v>0</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
         <v>0</v>
       </c>
       <c r="AF23">
@@ -4446,53 +6175,53 @@
       <c r="AH23">
         <v>0</v>
       </c>
-      <c r="AI23">
-        <v>99</v>
-      </c>
-      <c r="AJ23">
-        <v>98</v>
-      </c>
-      <c r="AK23">
-        <v>98</v>
+      <c r="AI23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0</v>
       </c>
       <c r="AL23">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM23">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN23">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR23">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS23">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT23">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU23">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV23">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW23">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX23">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.15">
@@ -4524,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -4598,53 +6327,53 @@
       <c r="AH24">
         <v>0</v>
       </c>
-      <c r="AI24">
-        <v>99</v>
-      </c>
-      <c r="AJ24">
-        <v>98</v>
-      </c>
-      <c r="AK24">
-        <v>98</v>
+      <c r="AI24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>0</v>
       </c>
       <c r="AL24">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM24">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN24">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ24">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR24">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS24">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT24">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU24">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV24">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW24">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX24">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.15">
@@ -4697,29 +6426,29 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>2</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
       <c r="Y25">
         <v>0</v>
       </c>
@@ -4733,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -4751,52 +6480,52 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL25">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM25">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN25">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ25">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR25">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS25">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT25">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU25">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV25">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW25">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX25">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.15">
@@ -4837,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -4864,91 +6593,91 @@
         <v>0</v>
       </c>
       <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
         <v>2</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>99</v>
-      </c>
-      <c r="AJ26">
-        <v>98</v>
-      </c>
-      <c r="AK26">
-        <v>98</v>
-      </c>
-      <c r="AL26">
-        <v>98</v>
-      </c>
-      <c r="AM26">
-        <v>98</v>
-      </c>
-      <c r="AN26">
-        <v>98</v>
-      </c>
-      <c r="AO26">
-        <v>98</v>
-      </c>
-      <c r="AP26">
-        <v>98</v>
-      </c>
-      <c r="AQ26">
-        <v>98</v>
-      </c>
-      <c r="AR26">
-        <v>98</v>
-      </c>
       <c r="AS26">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU26">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="AV26">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW26">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX26">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.15">
@@ -4971,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -5004,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -5055,52 +6784,52 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ27">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK27">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL27">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM27">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO27">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR27">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS27">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT27">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU27">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV27">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW27">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX27">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.15">
@@ -5207,52 +6936,52 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="AK28">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM28">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN28">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO28">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ28">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR28">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS28">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT28">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU28">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV28">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW28">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX28">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.15">
@@ -5278,13 +7007,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -5305,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -5323,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -5359,52 +7088,52 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ29">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK29">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL29">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM29">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN29">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ29">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR29">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS29">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT29">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU29">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV29">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW29">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX29">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.15">
@@ -5487,23 +7216,23 @@
         <v>0</v>
       </c>
       <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
         <v>2</v>
       </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>3</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
       <c r="AG30">
         <v>0</v>
       </c>
@@ -5511,52 +7240,52 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL30">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM30">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN30">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ30">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR30">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU30">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV30">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW30">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX30">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.15">
@@ -5600,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -5663,52 +7392,52 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL31">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM31">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN31">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO31">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ31">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR31">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS31">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT31">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU31">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV31">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW31">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX31">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.15">
@@ -5815,52 +7544,52 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK32">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL32">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM32">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN32">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO32">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR32">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS32">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT32">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU32">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV32">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW32">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX32">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.15">
@@ -5874,12 +7603,12 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33">
@@ -5955,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -5967,52 +7696,52 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK33">
-        <v>98</v>
-      </c>
-      <c r="AL33">
-        <v>98</v>
-      </c>
-      <c r="AM33">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>0</v>
       </c>
       <c r="AN33">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ33">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR33">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS33">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT33">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="AU33">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV33">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW33">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX33">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.15">
@@ -6025,13 +7754,13 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34">
@@ -6062,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -6107,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -6119,52 +7848,52 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <v>98</v>
-      </c>
-      <c r="AK34">
-        <v>98</v>
-      </c>
-      <c r="AL34">
-        <v>98</v>
-      </c>
-      <c r="AM34">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>0</v>
       </c>
       <c r="AN34">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO34">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ34">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR34">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS34">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT34">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU34">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV34">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW34">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX34">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.15">
@@ -6172,2479 +7901,2479 @@
         <v>99</v>
       </c>
       <c r="B35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>99</v>
-      </c>
-      <c r="D35">
-        <v>99</v>
-      </c>
-      <c r="E35">
-        <v>99</v>
-      </c>
-      <c r="F35">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AD35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ35">
-        <v>98</v>
-      </c>
-      <c r="AK35">
-        <v>98</v>
-      </c>
-      <c r="AL35">
-        <v>98</v>
-      </c>
-      <c r="AM35">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>0</v>
       </c>
       <c r="AN35">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ35">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR35">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS35">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT35">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU35">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV35">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW35">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX35">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AH36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AI36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX36">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AB37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AD37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AH37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AI37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AJ37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX37">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="Z38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AH38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AI38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AJ38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX38">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AB39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AD39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AE39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AG39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AH39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AI39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AJ39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW39">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX39">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="AG40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AH40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AI40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="AQ40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW40">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX40">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AD41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AE41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AG41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AH41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AI41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AJ41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN41">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="AO41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT41">
-        <v>98</v>
-      </c>
-      <c r="AU41">
-        <v>98</v>
-      </c>
-      <c r="AV41">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="AU41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="1">
+        <v>0</v>
       </c>
       <c r="AW41">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX41">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="X42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AH42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AI42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AJ42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS42">
-        <v>98</v>
-      </c>
-      <c r="AT42">
-        <v>98</v>
-      </c>
-      <c r="AU42">
-        <v>98</v>
-      </c>
-      <c r="AV42">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="1">
+        <v>0</v>
       </c>
       <c r="AW42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX42">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>98</v>
-      </c>
-      <c r="Q43">
-        <v>98</v>
-      </c>
-      <c r="R43">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="X43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Z43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>98</v>
-      </c>
-      <c r="AB43">
-        <v>98</v>
-      </c>
-      <c r="AC43">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
       </c>
       <c r="AD43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AE43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AG43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AH43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AI43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AJ43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS43">
-        <v>98</v>
-      </c>
-      <c r="AT43">
-        <v>98</v>
-      </c>
-      <c r="AU43">
-        <v>98</v>
-      </c>
-      <c r="AV43">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="1">
+        <v>0</v>
       </c>
       <c r="AW43">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX43">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>98</v>
-      </c>
-      <c r="P44">
-        <v>98</v>
-      </c>
-      <c r="Q44">
-        <v>98</v>
-      </c>
-      <c r="R44">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="X44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Z44">
-        <v>98</v>
-      </c>
-      <c r="AA44">
-        <v>98</v>
-      </c>
-      <c r="AB44">
-        <v>98</v>
-      </c>
-      <c r="AC44">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
       </c>
       <c r="AD44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AE44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AG44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AH44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AI44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AJ44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX44">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>98</v>
-      </c>
-      <c r="P45">
-        <v>98</v>
-      </c>
-      <c r="Q45">
-        <v>98</v>
-      </c>
-      <c r="R45">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="V45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="X45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Z45">
-        <v>98</v>
-      </c>
-      <c r="AA45">
-        <v>98</v>
-      </c>
-      <c r="AB45">
-        <v>98</v>
-      </c>
-      <c r="AC45">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0</v>
       </c>
       <c r="AD45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AE45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AG45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AH45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AI45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AJ45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW45">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX45">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Z46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AD46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AE46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AG46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AH46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AI46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AJ46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN46">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="AO46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU46">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="AV46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX46">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="X47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Z47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AB47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AD47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AE47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF47">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="AG47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AH47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AI47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AJ47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX47">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="P48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="V48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="X48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Z48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AB48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AD48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AE48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AH48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AI48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AJ48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT48">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="AU48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW48">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX48">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="X49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Z49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AB49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AC49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AD49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AE49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AG49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AH49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AI49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AJ49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AK49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AL49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AN49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AO49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AQ49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AR49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AS49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AV49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AW49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AX49">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AH50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AI50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AL50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AN50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AP50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AQ50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AR50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AS50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AT50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AU50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AV50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AW50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AX50">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 AB34:AH34 AH30:AO34 A35:AO40 AF7:AH34 B31:AG34 A4:AE34 B2:B10 C2:AH4">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 A4:AW34 AK33:AM35 B35:AW49">
+    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 AB34:AH34 AH30:AO34 A35:AO40 AF7:AH34 B31:AG34 A4:AE34 B2:B10 C2:AH4">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 A4:AW34 AK33:AM35 B35:AW49">
+    <cfRule type="cellIs" dxfId="84" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 AB34:AH34 AH30:AO34 A35:AO40 AF7:AH34 B31:AG34 A4:AE34 B2:B10 C2:AH4">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 A4:AW34 AK33:AM35 B35:AW49">
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 AB34:AH34 AH30:AO34 A35:AO40 AF7:AH34 B31:AG34 A4:AE34 B2:B10 C2:AH4">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 A4:AW34 AK33:AM35 B35:AW49">
+    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 AB34:AH34 AH30:AO34 A35:AO40 AF7:AH34 B31:AG34 A4:AE34 B2:B10 C2:AH4">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 A4:AW34 AK33:AM35 B35:AW49">
+    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A35 AI1:AI34 AF4:AN6 AH7:AN29 AE1:AH4 A1:AN3 AB34:AH34 AH30:AO34 A35:AO40 AF7:AH34 B31:AG34 A4:AE34 B2:B10 C2:AH4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 A4:AW34 AK33:AM35 B35:AW49">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/VenusCow.xlsx
+++ b/Star Regein/Star Regein/VenusCow.xlsx
@@ -81,1641 +81,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="231">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2722,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU37" sqref="AU37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP29" sqref="AP29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3151,22 +1517,22 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -3288,40 +1654,40 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -3431,13 +1797,13 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -3449,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -3467,16 +1833,16 @@
         <v>5</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
         <v>0</v>
@@ -3496,18 +1862,18 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
         <v>6</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
@@ -3517,12 +1883,12 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
@@ -3583,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -3592,13 +1958,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -3622,13 +1988,13 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6">
         <v>0</v>
@@ -3647,19 +2013,19 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
@@ -3668,13 +2034,13 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
@@ -3732,19 +2098,19 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -3774,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7">
         <v>0</v>
@@ -3799,19 +2165,19 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
@@ -3820,13 +2186,13 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
@@ -3890,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -3929,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8">
         <v>0</v>
@@ -3961,27 +2327,27 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>6</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <v>0</v>
       </c>
       <c r="N9">
@@ -4039,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -4075,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9">
         <v>0</v>
@@ -4084,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9">
         <v>0</v>
@@ -4112,8 +2478,8 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
+      <c r="F10">
+        <v>6</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -4121,19 +2487,19 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
         <v>0</v>
       </c>
       <c r="N10">
@@ -4239,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10">
         <v>0</v>
@@ -4273,19 +2639,19 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
         <v>0</v>
       </c>
       <c r="N11">
@@ -4355,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -4388,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11">
         <v>0</v>
@@ -4416,13 +2782,13 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12">
@@ -4489,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -4566,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -4638,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -4650,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13">
         <v>5</v>
@@ -4692,10 +3058,10 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW13">
         <v>0</v>
@@ -4718,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -4787,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -4817,12 +3183,12 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
+        <v>6</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
         <v>0</v>
       </c>
       <c r="AO14">
@@ -4832,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4841,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW14">
         <v>0</v>
@@ -4939,22 +3305,22 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15">
         <v>6</v>
@@ -4968,13 +3334,13 @@
       <c r="AK15">
         <v>0</v>
       </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
+      <c r="AL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1">
         <v>0</v>
       </c>
       <c r="AO15">
@@ -4993,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -5082,16 +3448,16 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -5106,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="1">
         <v>0</v>
@@ -5120,13 +3486,13 @@
       <c r="AK16">
         <v>0</v>
       </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1">
         <v>0</v>
       </c>
       <c r="AO16">
@@ -5145,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV16">
         <v>0</v>
@@ -5210,19 +3576,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -5231,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -5240,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -5258,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -5273,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" s="1">
         <v>0</v>
@@ -5294,10 +3660,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5356,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5377,19 +3743,19 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -5401,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -5410,10 +3776,10 @@
         <v>5</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -5422,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18" s="1">
         <v>0</v>
@@ -5443,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS18">
         <v>0</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5529,16 +3895,16 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -5550,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -5565,40 +3931,40 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19">
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19">
         <v>0</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -5729,22 +4095,22 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20">
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -10330,50 +8696,50 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 A4:AW34 AK33:AM35 B35:AW49">
-    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 A4:AW34 AK33:AM35 B35:AW49">
-    <cfRule type="cellIs" dxfId="84" priority="7" operator="equal">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 A4:AW34 AK33:AM35 B35:AW49">
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 A4:AW34 AK33:AM35 B35:AW49">
-    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 A4:AW34 AK33:AM35 B35:AW49">
-    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 A4:AW34 AK33:AM35 B35:AW49">
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/VenusCow.xlsx
+++ b/Star Regein/Star Regein/VenusCow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\恐れすぎた幽鬼\StarRegain\Star Regein\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -81,93 +81,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1089,7 +1003,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP29" sqref="AP29"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1561,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5278,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -8697,49 +8611,49 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/VenusCow.xlsx
+++ b/Star Regein/Star Regein/VenusCow.xlsx
@@ -81,93 +81,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1089,10 +1003,13 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP29" sqref="AP29"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="50" width="2.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1">
@@ -1409,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1430,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2092,13 +2009,13 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -2243,8 +2160,8 @@
       <c r="AB8">
         <v>0</v>
       </c>
-      <c r="AC8">
-        <v>6</v>
+      <c r="AC8" s="1">
+        <v>0</v>
       </c>
       <c r="AD8" s="1">
         <v>0</v>
@@ -2547,13 +2464,13 @@
       <c r="AB10">
         <v>0</v>
       </c>
-      <c r="AC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="1">
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
@@ -2584,12 +2501,12 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
+        <v>6</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
         <v>0</v>
       </c>
       <c r="AR10">
@@ -2735,13 +2652,13 @@
       <c r="AN11">
         <v>0</v>
       </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
+      <c r="AO11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1">
         <v>0</v>
       </c>
       <c r="AR11">
@@ -2887,13 +2804,13 @@
       <c r="AN12">
         <v>0</v>
       </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
+      <c r="AO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
         <v>0</v>
       </c>
       <c r="AR12">
@@ -3183,12 +3100,12 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>6</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
         <v>0</v>
       </c>
       <c r="AO14">
@@ -3320,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15">
         <v>6</v>
@@ -3334,13 +3251,13 @@
       <c r="AK15">
         <v>0</v>
       </c>
-      <c r="AL15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="1">
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
         <v>0</v>
       </c>
       <c r="AO15">
@@ -3466,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="1">
         <v>0</v>
@@ -3486,13 +3403,13 @@
       <c r="AK16">
         <v>0</v>
       </c>
-      <c r="AL16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="1">
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
         <v>0</v>
       </c>
       <c r="AO16">
@@ -3621,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -3779,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -3788,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -3877,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -3889,10 +3806,10 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -3928,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19">
         <v>1</v>
@@ -3955,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4029,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -4083,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -4178,16 +4095,16 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -4250,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21">
         <v>0</v>
@@ -4327,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -4363,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -4405,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -4479,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -4500,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -4560,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23">
         <v>0</v>
@@ -4634,12 +4551,12 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
         <v>0</v>
       </c>
       <c r="R24">
@@ -4712,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24">
         <v>0</v>
@@ -4785,13 +4702,13 @@
       <c r="N25">
         <v>0</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
         <v>0</v>
       </c>
       <c r="R25">
@@ -4864,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25">
         <v>0</v>
@@ -4935,15 +4852,15 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
         <v>0</v>
       </c>
       <c r="R26">
@@ -4977,12 +4894,12 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
+        <v>6</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
         <v>0</v>
       </c>
       <c r="AE26">
@@ -5007,13 +4924,13 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26">
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -5087,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -5111,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -5128,13 +5045,13 @@
       <c r="AA27">
         <v>0</v>
       </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
         <v>0</v>
       </c>
       <c r="AE27">
@@ -5144,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -5165,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5239,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -5248,10 +5165,10 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -5280,13 +5197,13 @@
       <c r="AA28">
         <v>0</v>
       </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
         <v>0</v>
       </c>
       <c r="AE28">
@@ -5314,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN28">
         <v>0</v>
@@ -5394,10 +5311,10 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -5406,13 +5323,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -5466,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN29">
         <v>0</v>
@@ -5540,13 +5457,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -5555,25 +5472,25 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -5615,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -5710,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -5728,13 +5645,13 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -5764,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -5865,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -5874,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -5883,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32">
         <v>0</v>
@@ -5913,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK32">
         <v>0</v>
@@ -6017,10 +5934,10 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -6029,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -6038,31 +5955,31 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33">
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33">
         <v>0</v>
@@ -6175,19 +6092,19 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -8697,49 +8614,49 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/VenusCow.xlsx
+++ b/Star Regein/Star Regein/VenusCow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\event\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -4480,13 +4480,13 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS23">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
         <v>6</v>
@@ -4641,10 +4641,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -4793,13 +4793,13 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25">
         <v>0</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV25">
         <v>0</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -4945,10 +4945,10 @@
         <v>2</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26">
         <v>1</v>
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW27">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="AM28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN28">
         <v>0</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW28">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN29">
         <v>0</v>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="AU29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV29">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="AU30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV30">
         <v>0</v>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW31">
         <v>0</v>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="AJ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32">
         <v>0</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="AV32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW32">
         <v>0</v>
@@ -5970,16 +5970,16 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="AV33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW33">
         <v>0</v>
@@ -6167,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="AU34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV34">
         <v>0</v>
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35">
         <v>0</v>
@@ -6319,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="AU35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV35">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -6468,13 +6468,13 @@
         <v>0</v>
       </c>
       <c r="AT36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU36">
         <v>0</v>
       </c>
       <c r="AV36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW36">
         <v>0</v>
@@ -6560,10 +6560,10 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -6575,13 +6575,13 @@
         <v>0</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH37">
         <v>0</v>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -6620,13 +6620,13 @@
         <v>0</v>
       </c>
       <c r="AT37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>0</v>
       </c>
       <c r="AV37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW37">
         <v>0</v>
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38">
         <v>0</v>
@@ -6772,13 +6772,13 @@
         <v>0</v>
       </c>
       <c r="AT38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU38">
         <v>0</v>
       </c>
       <c r="AV38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW38">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH39">
         <v>0</v>
@@ -6927,10 +6927,10 @@
         <v>0</v>
       </c>
       <c r="AU39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW39">
         <v>0</v>
@@ -7037,7 +7037,7 @@
         <v>2</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH40">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="AT40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="AG41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH41">
         <v>0</v>
@@ -7204,10 +7204,10 @@
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN41">
         <v>1</v>
@@ -7225,15 +7225,15 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41">
-        <v>6</v>
-      </c>
-      <c r="AU41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
         <v>0</v>
       </c>
       <c r="AW41">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH42">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="AK42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42">
         <v>0</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="AO42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP42">
         <v>0</v>
@@ -7377,15 +7377,15 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>0</v>
-      </c>
-      <c r="AT42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
         <v>0</v>
       </c>
       <c r="AW42">
@@ -7490,10 +7490,10 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH43">
         <v>0</v>
@@ -7502,16 +7502,16 @@
         <v>0</v>
       </c>
       <c r="AJ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN43">
         <v>0</v>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -7531,13 +7531,13 @@
       <c r="AS43">
         <v>0</v>
       </c>
-      <c r="AT43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV43" s="1">
+      <c r="AT43">
+        <v>1</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
         <v>0</v>
       </c>
       <c r="AW43">
@@ -7642,13 +7642,13 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44">
         <v>0</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44">
         <v>0</v>
@@ -7675,19 +7675,19 @@
         <v>0</v>
       </c>
       <c r="AQ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44">
         <v>0</v>
       </c>
       <c r="AU44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV44">
         <v>0</v>
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -7800,16 +7800,16 @@
         <v>0</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL45">
         <v>0</v>
@@ -7833,13 +7833,13 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV45">
         <v>0</v>
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -7961,10 +7961,10 @@
         <v>0</v>
       </c>
       <c r="AK46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="AR46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS46">
         <v>0</v>
@@ -8110,13 +8110,13 @@
         <v>0</v>
       </c>
       <c r="AJ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK47">
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM47">
         <v>0</v>
@@ -8128,19 +8128,19 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48">
         <v>0</v>
@@ -8253,13 +8253,13 @@
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ48">
         <v>0</v>
@@ -8271,13 +8271,13 @@
         <v>0</v>
       </c>
       <c r="AM48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP48">
         <v>0</v>
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="AR48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS48">
         <v>0</v>
@@ -8613,7 +8613,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 A4:AW34 B35:AW49">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -8624,7 +8624,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 A4:AW34 B35:AW49">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
@@ -8632,7 +8632,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 A4:AW34 B35:AW49">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -8640,17 +8640,17 @@
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 A4:AW34 B35:AW49">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 A4:AW34 B35:AW49">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 B35:AW49 A4:AW34">
+  <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 C2:AW4 D33:F35 G3:I5 AK33:AM35 A4:AW34 B35:AW49">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>

--- a/Star Regein/Star Regein/VenusCow.xlsx
+++ b/Star Regein/Star Regein/VenusCow.xlsx
@@ -51,13 +51,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF006600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF006600"/>
+        <fgColor rgb="FF339933"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -90,7 +90,2548 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="351">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -209,6 +2750,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF339933"/>
       <color rgb="FF006600"/>
       <color rgb="FF666699"/>
       <color rgb="FF333399"/>
@@ -1048,7 +3590,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH21" sqref="AH21"/>
+      <selection activeCell="AS40" sqref="AS40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1380,9 +3922,9 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3">
@@ -1433,10 +3975,10 @@
       <c r="X3">
         <v>0</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>13</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>0</v>
       </c>
       <c r="AA3">
@@ -1531,19 +4073,19 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>13</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>0</v>
       </c>
       <c r="L4">
@@ -1585,10 +4127,10 @@
       <c r="X4">
         <v>0</v>
       </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2">
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
         <v>0</v>
       </c>
       <c r="AA4">
@@ -1692,10 +4234,10 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>0</v>
       </c>
       <c r="L5">
@@ -1824,9 +4366,9 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6">
@@ -1975,10 +4517,10 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7">
@@ -2054,9 +4596,9 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>6</v>
-      </c>
-      <c r="AD7" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD7" s="2">
         <v>0</v>
       </c>
       <c r="AE7">
@@ -2205,10 +4747,10 @@
       <c r="AB8">
         <v>0</v>
       </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
         <v>0</v>
       </c>
       <c r="AE8">
@@ -2304,9 +4846,9 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9" s="1">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2">
         <v>0</v>
       </c>
       <c r="M9">
@@ -2431,19 +4973,19 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>13</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10">
@@ -2455,10 +4997,10 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <v>0</v>
       </c>
       <c r="M10">
@@ -2546,9 +5088,9 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>6</v>
-      </c>
-      <c r="AP10" s="1">
+        <v>14</v>
+      </c>
+      <c r="AP10" s="2">
         <v>0</v>
       </c>
       <c r="AQ10">
@@ -2583,19 +5125,19 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11">
@@ -2631,10 +5173,10 @@
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <v>13</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="1">
         <v>0</v>
       </c>
       <c r="U11">
@@ -2697,10 +5239,10 @@
       <c r="AN11">
         <v>0</v>
       </c>
-      <c r="AO11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="1">
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2">
         <v>0</v>
       </c>
       <c r="AQ11">
@@ -2783,10 +5325,10 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
         <v>0</v>
       </c>
       <c r="U12">
@@ -2802,9 +5344,9 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>6</v>
-      </c>
-      <c r="Z12" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z12" s="2">
         <v>0</v>
       </c>
       <c r="AA12">
@@ -2849,10 +5391,10 @@
       <c r="AN12">
         <v>0</v>
       </c>
-      <c r="AO12" s="2">
+      <c r="AO12" s="1">
         <v>13</v>
       </c>
-      <c r="AP12" s="2">
+      <c r="AP12" s="1">
         <v>0</v>
       </c>
       <c r="AQ12">
@@ -2902,10 +5444,10 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>13</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13">
@@ -2953,10 +5495,10 @@
       <c r="X13">
         <v>0</v>
       </c>
-      <c r="Y13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1">
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
         <v>0</v>
       </c>
       <c r="AA13">
@@ -3001,10 +5543,10 @@
       <c r="AN13">
         <v>0</v>
       </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="2">
+      <c r="AO13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="1">
         <v>0</v>
       </c>
       <c r="AQ13">
@@ -3054,10 +5596,10 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14">
@@ -3082,9 +5624,9 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
-      </c>
-      <c r="R14" s="1">
+        <v>14</v>
+      </c>
+      <c r="R14" s="2">
         <v>0</v>
       </c>
       <c r="S14">
@@ -3138,10 +5680,10 @@
       <c r="AI14">
         <v>0</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AJ14" s="1">
         <v>13</v>
       </c>
-      <c r="AK14" s="2">
+      <c r="AK14" s="1">
         <v>0</v>
       </c>
       <c r="AL14">
@@ -3233,10 +5775,10 @@
       <c r="P15">
         <v>0</v>
       </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
         <v>0</v>
       </c>
       <c r="S15">
@@ -3285,15 +5827,15 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>6</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="2">
+        <v>14</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="1">
         <v>0</v>
       </c>
       <c r="AL15">
@@ -3436,10 +5978,10 @@
       <c r="AG16">
         <v>0</v>
       </c>
-      <c r="AH16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="1">
+      <c r="AH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2">
         <v>0</v>
       </c>
       <c r="AJ16">
@@ -3458,9 +6000,9 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>6</v>
-      </c>
-      <c r="AP16" s="1">
+        <v>14</v>
+      </c>
+      <c r="AP16" s="2">
         <v>0</v>
       </c>
       <c r="AQ16">
@@ -3609,10 +6151,10 @@
       <c r="AN17">
         <v>1</v>
       </c>
-      <c r="AO17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="1">
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="2">
         <v>0</v>
       </c>
       <c r="AQ17">
@@ -4116,9 +6658,9 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21" s="1">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21">
@@ -4182,9 +6724,9 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>6</v>
-      </c>
-      <c r="AD21" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD21" s="2">
         <v>0</v>
       </c>
       <c r="AE21">
@@ -4267,19 +6809,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
         <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>13</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>0</v>
       </c>
       <c r="L22">
@@ -4333,10 +6875,10 @@
       <c r="AB22">
         <v>0</v>
       </c>
-      <c r="AC22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="1">
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2">
         <v>0</v>
       </c>
       <c r="AE22">
@@ -4352,9 +6894,9 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>6</v>
-      </c>
-      <c r="AJ22" s="1">
+        <v>14</v>
+      </c>
+      <c r="AJ22" s="2">
         <v>0</v>
       </c>
       <c r="AK22">
@@ -4428,10 +6970,10 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
         <v>0</v>
       </c>
       <c r="L23">
@@ -4503,10 +7045,10 @@
       <c r="AH23">
         <v>0</v>
       </c>
-      <c r="AI23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="1">
+      <c r="AI23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="2">
         <v>0</v>
       </c>
       <c r="AK23">
@@ -4596,9 +7138,9 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>6</v>
-      </c>
-      <c r="P24" s="1">
+        <v>14</v>
+      </c>
+      <c r="P24" s="2">
         <v>0</v>
       </c>
       <c r="Q24">
@@ -4643,10 +7185,10 @@
       <c r="AD24">
         <v>0</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AE24" s="1">
         <v>13</v>
       </c>
-      <c r="AF24" s="2">
+      <c r="AF24" s="1">
         <v>0</v>
       </c>
       <c r="AG24">
@@ -4747,10 +7289,10 @@
       <c r="N25">
         <v>0</v>
       </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1">
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
         <v>0</v>
       </c>
       <c r="Q25">
@@ -4759,10 +7301,10 @@
       <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="1">
         <v>13</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25" s="1">
         <v>0</v>
       </c>
       <c r="U25">
@@ -4795,10 +7337,10 @@
       <c r="AD25">
         <v>0</v>
       </c>
-      <c r="AE25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="2">
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1">
         <v>0</v>
       </c>
       <c r="AG25">
@@ -4863,10 +7405,10 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>13</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26">
@@ -4911,10 +7453,10 @@
       <c r="R26">
         <v>0</v>
       </c>
-      <c r="S26" s="2">
-        <v>0</v>
-      </c>
-      <c r="T26" s="2">
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
         <v>0</v>
       </c>
       <c r="U26">
@@ -4939,9 +7481,9 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>6</v>
-      </c>
-      <c r="AC26" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC26" s="2">
         <v>0</v>
       </c>
       <c r="AD26">
@@ -5015,10 +7557,10 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27">
@@ -5084,16 +7626,16 @@
       <c r="Y27">
         <v>0</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="Z27" s="1">
         <v>13</v>
       </c>
-      <c r="AA27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="1">
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2">
         <v>0</v>
       </c>
       <c r="AD27">
@@ -5236,10 +7778,10 @@
       <c r="Y28">
         <v>0</v>
       </c>
-      <c r="Z28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="2">
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
         <v>0</v>
       </c>
       <c r="AB28">
@@ -5278,10 +7820,10 @@
       <c r="AM28">
         <v>0</v>
       </c>
-      <c r="AN28" s="2">
+      <c r="AN28" s="1">
         <v>13</v>
       </c>
-      <c r="AO28" s="2">
+      <c r="AO28" s="1">
         <v>0</v>
       </c>
       <c r="AP28">
@@ -5430,10 +7972,10 @@
       <c r="AM29">
         <v>0</v>
       </c>
-      <c r="AN29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="2">
+      <c r="AN29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="1">
         <v>0</v>
       </c>
       <c r="AP29">
@@ -5796,10 +8338,10 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>13</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>0</v>
       </c>
       <c r="L32">
@@ -5931,9 +8473,9 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2">
         <v>0</v>
       </c>
       <c r="F33">
@@ -5948,10 +8490,10 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
         <v>0</v>
       </c>
       <c r="L33">
@@ -6030,9 +8572,9 @@
         <v>0</v>
       </c>
       <c r="AK33">
-        <v>6</v>
-      </c>
-      <c r="AL33" s="1">
+        <v>14</v>
+      </c>
+      <c r="AL33" s="2">
         <v>0</v>
       </c>
       <c r="AM33">
@@ -6082,10 +8624,10 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
         <v>0</v>
       </c>
       <c r="F34">
@@ -6181,10 +8723,10 @@
       <c r="AJ34">
         <v>0</v>
       </c>
-      <c r="AK34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="1">
+      <c r="AK34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="2">
         <v>0</v>
       </c>
       <c r="AM34">
@@ -6634,10 +9176,10 @@
       <c r="AI37">
         <v>0</v>
       </c>
-      <c r="AJ37" s="2">
+      <c r="AJ37" s="1">
         <v>13</v>
       </c>
-      <c r="AK37" s="2">
+      <c r="AK37" s="1">
         <v>0</v>
       </c>
       <c r="AL37">
@@ -6786,10 +9328,10 @@
       <c r="AI38">
         <v>0</v>
       </c>
-      <c r="AJ38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="2">
+      <c r="AJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1">
         <v>0</v>
       </c>
       <c r="AL38">
@@ -6848,10 +9390,10 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>13</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39">
@@ -7000,10 +9542,10 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2">
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40">
@@ -7030,10 +9572,10 @@
       <c r="O40">
         <v>0</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="1">
         <v>13</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40" s="1">
         <v>0</v>
       </c>
       <c r="R40">
@@ -7182,10 +9724,10 @@
       <c r="O41">
         <v>0</v>
       </c>
-      <c r="P41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2">
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
         <v>0</v>
       </c>
       <c r="R41">
@@ -7487,9 +10029,9 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>6</v>
-      </c>
-      <c r="Q43" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="2">
         <v>0</v>
       </c>
       <c r="R43">
@@ -7520,9 +10062,9 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>6</v>
-      </c>
-      <c r="AB43" s="1">
+        <v>14</v>
+      </c>
+      <c r="AB43" s="2">
         <v>0</v>
       </c>
       <c r="AC43">
@@ -7638,10 +10180,10 @@
       <c r="O44">
         <v>0</v>
       </c>
-      <c r="P44" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="1">
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
         <v>0</v>
       </c>
       <c r="R44">
@@ -7662,19 +10204,19 @@
       <c r="W44">
         <v>0</v>
       </c>
-      <c r="X44" s="2">
+      <c r="X44" s="1">
         <v>13</v>
       </c>
-      <c r="Y44" s="2">
+      <c r="Y44" s="1">
         <v>0</v>
       </c>
       <c r="Z44">
         <v>0</v>
       </c>
-      <c r="AA44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="1">
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
         <v>0</v>
       </c>
       <c r="AC44">
@@ -7814,10 +10356,10 @@
       <c r="W45">
         <v>0</v>
       </c>
-      <c r="X45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="2">
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
         <v>0</v>
       </c>
       <c r="Z45">
@@ -7924,10 +10466,10 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="1">
         <v>13</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="1">
         <v>0</v>
       </c>
       <c r="L46">
@@ -8076,10 +10618,10 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
         <v>0</v>
       </c>
       <c r="L47">
@@ -8659,62 +11201,65 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 D33:F35 AK33:AM35 F33:F37 G3:I5 AM31:AM36 C2:AW4 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 D33:F35 AK33:AM35 F33:F37 G3:I5 AM31:AM36 C2:AW4 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 D33:F35 AK33:AM35 F33:F37 G3:I5 AM31:AM36 C2:AW4 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 D33:F35 AK33:AM35 F33:F37 G3:I5 AM31:AM36 C2:AW4 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 D33:F35 AK33:AM35 F33:F37 G3:I5 AM31:AM36 C2:AW4 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 A35:AO40 B2:B10 AJ1:AX1 A2:A50 B50:AX50 AX2:AX49 D33:F35 AK33:AM35 F33:F37 G3:I5 AM31:AM36 C2:AW4 B35:AW49 A4:AW34">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="7" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="6" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="5" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="4" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="3" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="2" operator="equal">
       <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="1" operator="equal">
+      <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Star Regein/Star Regein/VenusCow.xlsx
+++ b/Star Regein/Star Regein/VenusCow.xlsx
@@ -90,42 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="496">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="288">
     <dxf>
       <font>
         <color theme="0"/>
@@ -137,6 +102,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -213,41 +213,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -258,6 +223,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -334,41 +334,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -379,6 +344,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -455,41 +455,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -500,6 +465,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -576,41 +576,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -621,6 +586,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -697,41 +697,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -742,6 +707,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -818,41 +818,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -863,6 +828,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -939,41 +939,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -984,6 +949,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1060,41 +1060,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1105,6 +1070,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1181,41 +1181,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1226,6 +1191,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1302,41 +1302,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1347,6 +1312,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1423,41 +1423,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1468,6 +1433,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1590,6 +1590,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -1644,6 +1720,117 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1663,20 +1850,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -1699,6 +1872,110 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1732,20 +2009,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="1" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1761,62 +2024,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1831,78 +2038,30 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1910,1738 +2069,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4686,7 +3113,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI33" sqref="AI33"/>
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7227,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI17">
         <v>0</v>
@@ -7239,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -12297,1118 +10724,1118 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 AN1:AN39 AJ1:AX1 A2:AX4 A16:S17 V16:AX17 A18:C19 F18:Y18 A25:B26 E25:W26 A35:AX35 A33:K34 N34:AX34 X36:AX37 A15:AX15 AD13:AX14 P5:AX5 AE23:AX24 A27:AX28 A38:AX50 A23:AB24 A9:AX10 A31:AX31 A20:F20 F19 A11:E12 A7:R7 P6:R6 U6:AX6 U7:AC7 AF7:AX8 I19:T20 W19:Y19 W20:AX20 A32:R32 N33:R33 U32:AX33 Z25:AX26 AB18:AX19 A13:AA14 H11:AX12 A8:AC8 A5:M6 A21:AX22 A29:H30 K29:AX30 A36:U37">
-    <cfRule type="cellIs" dxfId="495" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="286" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="287" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="288" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 AN1:AN39 AJ1:AX1 A2:AX4 A16:S17 V16:AX17 A18:C19 F18:Y18 A25:B26 E25:W26 A35:AX35 A33:K34 N34:AX34 X36:AX37 A15:AX15 AD13:AX14 P5:AX5 AE23:AX24 A27:AX28 A38:AX50 A23:AB24 A9:AX10 A31:AX31 A20:F20 F19 A11:E12 A7:R7 P6:R6 U6:AX6 U7:AC7 AF7:AX8 I19:T20 W19:Y19 W20:AX20 A32:R32 N33:R33 U32:AX33 Z25:AX26 AB18:AX19 A13:AA14 H11:AX12 A8:AC8 A5:M6 A21:AX22 A29:H30 K29:AX30 A36:U37">
-    <cfRule type="cellIs" dxfId="492" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="284" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="285" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 AN1:AN39 AJ1:AX1 A2:AX4 A16:S17 V16:AX17 A18:C19 F18:Y18 A25:B26 E25:W26 A35:AX35 A33:K34 N34:AX34 X36:AX37 A15:AX15 AD13:AX14 P5:AX5 AE23:AX24 A27:AX28 A38:AX50 A23:AB24 A9:AX10 A31:AX31 A20:F20 F19 A11:E12 A7:R7 P6:R6 U6:AX6 U7:AC7 AF7:AX8 I19:T20 W19:Y19 W20:AX20 A32:R32 N33:R33 U32:AX33 Z25:AX26 AB18:AX19 A13:AA14 H11:AX12 A8:AC8 A5:M6 A21:AX22 A29:H30 K29:AX30 A36:U37">
-    <cfRule type="cellIs" dxfId="490" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="282" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="283" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 AN1:AN39 AJ1:AX1 A2:AX4 A16:S17 V16:AX17 A18:C19 F18:Y18 A25:B26 E25:W26 A35:AX35 A33:K34 N34:AX34 X36:AX37 A15:AX15 AD13:AX14 P5:AX5 AE23:AX24 A27:AX28 A38:AX50 A23:AB24 A9:AX10 A31:AX31 A20:F20 F19 A11:E12 A7:R7 P6:R6 U6:AX6 U7:AC7 AF7:AX8 I19:T20 W19:Y19 W20:AX20 A32:R32 N33:R33 U32:AX33 Z25:AX26 AB18:AX19 A13:AA14 H11:AX12 A8:AC8 A5:M6 A21:AX22 A29:H30 K29:AX30 A36:U37">
-    <cfRule type="cellIs" dxfId="488" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="281" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 AN1:AN39 AJ1:AX1 A2:AX4 A16:S17 V16:AX17 A18:C19 F18:Y18 A25:B26 E25:W26 A35:AX35 A33:K34 N34:AX34 X36:AX37 A15:AX15 AD13:AX14 P5:AX5 AE23:AX24 A27:AX28 A38:AX50 A23:AB24 A9:AX10 A31:AX31 A20:F20 F19 A11:E12 A7:R7 P6:R6 U6:AX6 U7:AC7 AF7:AX8 I19:T20 W19:Y19 W20:AX20 A32:R32 N33:R33 U32:AX33 Z25:AX26 AB18:AX19 A13:AA14 H11:AX12 A8:AC8 A5:M6 A21:AX22 A29:H30 K29:AX30 A36:U37">
-    <cfRule type="cellIs" dxfId="487" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="280" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI34 AE1:AH4 A1:AN3 AN1:AN39 AJ1:AX1 A2:AX4 A16:S17 V16:AX17 A18:C19 F18:Y18 A25:B26 E25:W26 A35:AX35 A33:K34 N34:AX34 X36:AX37 A15:AX15 AD13:AX14 P5:AX5 AE23:AX24 A27:AX28 A38:AX50 A23:AB24 A9:AX10 A31:AX31 A20:F20 F19 A11:E12 A7:R7 P6:R6 U6:AX6 U7:AC7 AF7:AX8 I19:T20 W19:Y19 W20:AX20 A32:R32 N33:R33 U32:AX33 Z25:AX26 AB18:AX19 A13:AA14 H11:AX12 A8:AC8 A5:M6 A21:AX22 A29:H30 K29:AX30 A36:U37">
-    <cfRule type="cellIs" dxfId="486" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="279" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD4 A16:S17 V16:XFD17 A18:C19 F18:Y18 A25:B26 E25:W26 A35:XFD35 A33:K34 N34:XFD34 X36:XFD37 A15:XFD15 AD13:XFD14 P5:XFD5 AE23:XFD24 A27:XFD28 A38:XFD1048576 A23:AB24 A9:XFD10 A31:XFD31 A20:F20 F19 A11:E12 A7:R7 P6:R6 U6:XFD6 U7:AC7 AF7:XFD8 I19:T20 W19:Y19 W20:XFD20 A32:R32 N33:R33 U32:XFD33 Z25:XFD26 AB18:XFD19 A13:AA14 H11:XFD12 A8:AC8 A5:M6 A21:XFD22 A29:H30 K29:XFD30 A36:U37">
-    <cfRule type="cellIs" dxfId="485" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="278" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="277" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="276" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="275" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="274" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="273" operator="equal">
       <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:U17">
-    <cfRule type="cellIs" dxfId="479" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="270" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="271" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="272" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:U17">
-    <cfRule type="cellIs" dxfId="476" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="268" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="269" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:U17">
-    <cfRule type="cellIs" dxfId="474" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="266" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="267" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:U17">
-    <cfRule type="cellIs" dxfId="472" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="265" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:U17">
-    <cfRule type="cellIs" dxfId="471" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="264" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:U17">
-    <cfRule type="cellIs" dxfId="470" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="263" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:U17">
-    <cfRule type="cellIs" dxfId="464" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="257" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="258" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="259" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="260" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="261" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="262" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E19">
-    <cfRule type="cellIs" dxfId="463" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="254" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="255" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="256" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E19">
-    <cfRule type="cellIs" dxfId="460" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="252" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="253" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E19">
-    <cfRule type="cellIs" dxfId="458" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="250" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="251" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E19">
-    <cfRule type="cellIs" dxfId="456" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="249" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E19">
-    <cfRule type="cellIs" dxfId="455" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="248" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E19">
-    <cfRule type="cellIs" dxfId="454" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="247" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E19">
-    <cfRule type="cellIs" dxfId="448" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="241" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="242" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="243" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="244" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="245" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="246" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:D26">
-    <cfRule type="cellIs" dxfId="447" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="238" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="239" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="240" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:D26">
-    <cfRule type="cellIs" dxfId="444" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="236" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="237" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:D26">
-    <cfRule type="cellIs" dxfId="442" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="234" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="235" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:D26">
-    <cfRule type="cellIs" dxfId="440" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="233" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:D26">
-    <cfRule type="cellIs" dxfId="439" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="232" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:D26">
-    <cfRule type="cellIs" dxfId="438" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="231" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:D26">
-    <cfRule type="cellIs" dxfId="432" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="225" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="226" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="227" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="228" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="229" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="230" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:M34">
-    <cfRule type="cellIs" dxfId="431" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="222" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="224" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:M34">
-    <cfRule type="cellIs" dxfId="428" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="220" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="221" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:M34">
-    <cfRule type="cellIs" dxfId="426" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="218" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="219" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:M34">
-    <cfRule type="cellIs" dxfId="424" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="217" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:M34">
-    <cfRule type="cellIs" dxfId="423" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="216" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:M34">
-    <cfRule type="cellIs" dxfId="422" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:M34">
-    <cfRule type="cellIs" dxfId="416" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="209" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="210" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="211" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="212" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="213" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="214" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W37">
-    <cfRule type="cellIs" dxfId="415" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="206" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="207" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="208" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W37">
-    <cfRule type="cellIs" dxfId="412" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="204" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="205" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W37">
-    <cfRule type="cellIs" dxfId="410" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="202" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="203" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W37">
-    <cfRule type="cellIs" dxfId="408" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="201" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W37">
-    <cfRule type="cellIs" dxfId="407" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="200" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W37">
-    <cfRule type="cellIs" dxfId="406" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="199" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W37">
-    <cfRule type="cellIs" dxfId="400" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="193" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="194" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="195" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="196" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="197" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="198" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC23:AD24">
-    <cfRule type="cellIs" dxfId="399" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="190" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="191" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="192" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC23:AD24">
-    <cfRule type="cellIs" dxfId="396" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="188" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="189" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC23:AD24">
-    <cfRule type="cellIs" dxfId="394" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="186" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="187" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC23:AD24">
-    <cfRule type="cellIs" dxfId="392" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="185" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC23:AD24">
-    <cfRule type="cellIs" dxfId="391" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="184" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC23:AD24">
-    <cfRule type="cellIs" dxfId="390" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="183" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC23:AD24">
-    <cfRule type="cellIs" dxfId="384" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="177" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="178" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="179" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="180" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="181" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="182" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AC14">
-    <cfRule type="cellIs" dxfId="383" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="174" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AC14">
-    <cfRule type="cellIs" dxfId="380" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="172" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="173" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AC14">
-    <cfRule type="cellIs" dxfId="378" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="170" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="171" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AC14">
-    <cfRule type="cellIs" dxfId="376" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="169" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AC14">
-    <cfRule type="cellIs" dxfId="375" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="168" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AC14">
-    <cfRule type="cellIs" dxfId="374" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="167" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AC14">
-    <cfRule type="cellIs" dxfId="368" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="161" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="162" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="163" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="164" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="165" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="166" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:O6">
-    <cfRule type="cellIs" dxfId="367" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="158" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="159" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="160" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:O6">
-    <cfRule type="cellIs" dxfId="364" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="156" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="157" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:O6">
-    <cfRule type="cellIs" dxfId="362" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="154" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="155" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:O6">
-    <cfRule type="cellIs" dxfId="360" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="153" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:O6">
-    <cfRule type="cellIs" dxfId="359" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="152" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:O6">
-    <cfRule type="cellIs" dxfId="358" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="151" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:O6">
-    <cfRule type="cellIs" dxfId="352" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="145" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="146" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="147" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="148" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="149" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="150" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:J30">
-    <cfRule type="cellIs" dxfId="351" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="143" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="144" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:J30">
-    <cfRule type="cellIs" dxfId="348" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="140" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="141" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:J30">
-    <cfRule type="cellIs" dxfId="346" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="138" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="139" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:J30">
-    <cfRule type="cellIs" dxfId="344" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:J30">
-    <cfRule type="cellIs" dxfId="343" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="136" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:J30">
-    <cfRule type="cellIs" dxfId="342" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="135" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:J30">
-    <cfRule type="cellIs" dxfId="336" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="129" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="130" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="131" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="132" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="133" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="134" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H20">
-    <cfRule type="cellIs" dxfId="335" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="126" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="127" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="128" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H20">
-    <cfRule type="cellIs" dxfId="332" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="124" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="125" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H20">
-    <cfRule type="cellIs" dxfId="330" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="122" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="123" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H20">
-    <cfRule type="cellIs" dxfId="328" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="121" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H20">
-    <cfRule type="cellIs" dxfId="327" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="120" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H20">
-    <cfRule type="cellIs" dxfId="326" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H20">
-    <cfRule type="cellIs" dxfId="320" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="113" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="114" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="115" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="116" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="117" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="118" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G12">
-    <cfRule type="cellIs" dxfId="319" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="110" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="112" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G12">
-    <cfRule type="cellIs" dxfId="316" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="109" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G12">
-    <cfRule type="cellIs" dxfId="314" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G12">
-    <cfRule type="cellIs" dxfId="312" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G12">
-    <cfRule type="cellIs" dxfId="311" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G12">
-    <cfRule type="cellIs" dxfId="310" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G12">
-    <cfRule type="cellIs" dxfId="304" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="99" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="100" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="101" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="102" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:T7">
-    <cfRule type="cellIs" dxfId="303" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="96" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:T7">
-    <cfRule type="cellIs" dxfId="300" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="93" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:T7">
-    <cfRule type="cellIs" dxfId="298" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:T7">
-    <cfRule type="cellIs" dxfId="296" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:T7">
-    <cfRule type="cellIs" dxfId="295" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:T7">
-    <cfRule type="cellIs" dxfId="294" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:T7">
-    <cfRule type="cellIs" dxfId="288" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="81" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="82" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="85" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="86" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7:AE8">
-    <cfRule type="cellIs" dxfId="287" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="78" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7:AE8">
-    <cfRule type="cellIs" dxfId="284" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7:AE8">
-    <cfRule type="cellIs" dxfId="282" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7:AE8">
-    <cfRule type="cellIs" dxfId="280" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7:AE8">
-    <cfRule type="cellIs" dxfId="279" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7:AE8">
-    <cfRule type="cellIs" dxfId="278" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7:AE8">
-    <cfRule type="cellIs" dxfId="272" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="65" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="66" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="69" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="70" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA19">
-    <cfRule type="cellIs" dxfId="271" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="62" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA19">
-    <cfRule type="cellIs" dxfId="268" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA19">
-    <cfRule type="cellIs" dxfId="266" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA19">
-    <cfRule type="cellIs" dxfId="264" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA19">
-    <cfRule type="cellIs" dxfId="263" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA19">
-    <cfRule type="cellIs" dxfId="262" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA19">
-    <cfRule type="cellIs" dxfId="256" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:V20">
-    <cfRule type="cellIs" dxfId="255" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:V20">
-    <cfRule type="cellIs" dxfId="252" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:V20">
-    <cfRule type="cellIs" dxfId="250" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:V20">
-    <cfRule type="cellIs" dxfId="248" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:V20">
-    <cfRule type="cellIs" dxfId="247" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:V20">
-    <cfRule type="cellIs" dxfId="246" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:V20">
-    <cfRule type="cellIs" dxfId="240" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:Y26">
-    <cfRule type="cellIs" dxfId="239" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:Y26">
-    <cfRule type="cellIs" dxfId="236" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:Y26">
-    <cfRule type="cellIs" dxfId="234" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:Y26">
-    <cfRule type="cellIs" dxfId="232" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:Y26">
-    <cfRule type="cellIs" dxfId="231" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:Y26">
-    <cfRule type="cellIs" dxfId="230" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:Y26">
-    <cfRule type="cellIs" dxfId="224" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:T33">
-    <cfRule type="cellIs" dxfId="223" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:T33">
-    <cfRule type="cellIs" dxfId="217" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:T33">
-    <cfRule type="cellIs" dxfId="213" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:T33">
-    <cfRule type="cellIs" dxfId="209" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:T33">
-    <cfRule type="cellIs" dxfId="207" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:T33">
-    <cfRule type="cellIs" dxfId="205" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:T33">
-    <cfRule type="cellIs" dxfId="203" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
